--- a/Shablon/MSO6012A.xlsx
+++ b/Shablon/MSO6012A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
   <si>
     <t>Канал 1</t>
   </si>
@@ -1519,6 +1519,15 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
   </si>
 </sst>
 </file>
@@ -1927,91 +1936,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2044,38 +2054,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2083,44 +2117,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2427,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2441,46 +2449,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2509,42 +2517,42 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -2578,20 +2586,20 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" s="22" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="76"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -2600,19 +2608,21 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+    <row r="12" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -2621,19 +2631,21 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+    <row r="13" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2642,19 +2654,21 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+    <row r="14" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="102"/>
+      <c r="G14" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2676,30 +2690,30 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2780,18 +2794,18 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -2806,17 +2820,17 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,95 +2846,95 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="65" t="s">
+      <c r="F28" s="64"/>
+      <c r="G28" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="48"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -2929,14 +2943,14 @@
       <c r="B34" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="62" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="31" t="e">
         <f>C34-A34*3</f>
         <v>#VALUE!</v>
@@ -2945,10 +2959,10 @@
         <f>E34+A34*3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="48"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -2957,14 +2971,14 @@
       <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="62" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="31" t="e">
         <f t="shared" ref="G35:G47" si="0">C35-A35*3</f>
         <v>#VALUE!</v>
@@ -2973,10 +2987,10 @@
         <f t="shared" ref="H35:H47" si="1">E35+A35*3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J35" s="48"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -2985,14 +2999,14 @@
       <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="62" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3001,10 +3015,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="48"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -3013,14 +3027,14 @@
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="62" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3029,10 +3043,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="48"/>
+      <c r="J37" s="57"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
@@ -3041,14 +3055,14 @@
       <c r="B38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="62" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3057,10 +3071,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="48"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
@@ -3069,14 +3083,14 @@
       <c r="B39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="62" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3085,10 +3099,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="48"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -3097,14 +3111,14 @@
       <c r="B40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="62" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3113,10 +3127,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="48"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -3125,14 +3139,14 @@
       <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="62" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3141,10 +3155,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="48"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
@@ -3153,14 +3167,14 @@
       <c r="B42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="62" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3169,10 +3183,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="48"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -3181,14 +3195,14 @@
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="62" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3197,10 +3211,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="48"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -3209,14 +3223,14 @@
       <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="62" t="s">
+      <c r="D44" s="56"/>
+      <c r="E44" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="63"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3225,10 +3239,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="48"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -3237,14 +3251,14 @@
       <c r="B45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="62" t="s">
+      <c r="D45" s="56"/>
+      <c r="E45" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="32" t="e">
         <f>C45-A45</f>
         <v>#VALUE!</v>
@@ -3253,10 +3267,10 @@
         <f>E45+A45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="48"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
@@ -3265,14 +3279,14 @@
       <c r="B46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="62" t="s">
+      <c r="D46" s="56"/>
+      <c r="E46" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="32" t="e">
         <f>C46-A46*2</f>
         <v>#VALUE!</v>
@@ -3281,10 +3295,10 @@
         <f>E46+A46*2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="48"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
@@ -3293,14 +3307,14 @@
       <c r="B47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="62" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3309,10 +3323,10 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="48"/>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -3321,14 +3335,14 @@
       <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="62" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="32" t="e">
         <f>C48-A48*4</f>
         <v>#VALUE!</v>
@@ -3337,24 +3351,24 @@
         <f>E48+A48*4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="48"/>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
@@ -3363,14 +3377,14 @@
       <c r="B50" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="62" t="s">
+      <c r="D50" s="56"/>
+      <c r="E50" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F50" s="63"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="31" t="e">
         <f>C50-A50*3</f>
         <v>#VALUE!</v>
@@ -3379,10 +3393,10 @@
         <f>E50+A50*3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J50" s="48"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="51" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -3391,14 +3405,14 @@
       <c r="B51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="62" t="s">
+      <c r="D51" s="56"/>
+      <c r="E51" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="63"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="31" t="e">
         <f t="shared" ref="G51:G63" si="2">C51-A51*3</f>
         <v>#VALUE!</v>
@@ -3407,10 +3421,10 @@
         <f t="shared" ref="H51:H63" si="3">E51+A51*3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="48"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
@@ -3419,14 +3433,14 @@
       <c r="B52" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="62" t="s">
+      <c r="D52" s="56"/>
+      <c r="E52" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="63"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3435,10 +3449,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="48"/>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
@@ -3447,14 +3461,14 @@
       <c r="B53" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="62" t="s">
+      <c r="D53" s="56"/>
+      <c r="E53" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3463,10 +3477,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="48"/>
+      <c r="J53" s="57"/>
     </row>
     <row r="54" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
@@ -3475,14 +3489,14 @@
       <c r="B54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="62" t="s">
+      <c r="D54" s="56"/>
+      <c r="E54" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="63"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3491,10 +3505,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J54" s="48"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
@@ -3503,14 +3517,14 @@
       <c r="B55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="62" t="s">
+      <c r="D55" s="56"/>
+      <c r="E55" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3519,10 +3533,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="48"/>
+      <c r="J55" s="57"/>
     </row>
     <row r="56" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
@@ -3531,14 +3545,14 @@
       <c r="B56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="62" t="s">
+      <c r="D56" s="56"/>
+      <c r="E56" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="63"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3547,10 +3561,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="48"/>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
@@ -3559,14 +3573,14 @@
       <c r="B57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="62" t="s">
+      <c r="D57" s="56"/>
+      <c r="E57" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="63"/>
+      <c r="F57" s="56"/>
       <c r="G57" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3575,10 +3589,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="48"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
@@ -3587,14 +3601,14 @@
       <c r="B58" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="63"/>
-      <c r="E58" s="62" t="s">
+      <c r="D58" s="56"/>
+      <c r="E58" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="63"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3603,10 +3617,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="48"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
@@ -3615,14 +3629,14 @@
       <c r="B59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="62" t="s">
+      <c r="D59" s="56"/>
+      <c r="E59" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F59" s="63"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3631,10 +3645,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="48"/>
+      <c r="J59" s="57"/>
     </row>
     <row r="60" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
@@ -3643,14 +3657,14 @@
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="62" t="s">
+      <c r="D60" s="56"/>
+      <c r="E60" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="63"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3659,10 +3673,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="48"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
@@ -3671,14 +3685,14 @@
       <c r="B61" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="62" t="s">
+      <c r="D61" s="56"/>
+      <c r="E61" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="32" t="e">
         <f>C61-A61</f>
         <v>#VALUE!</v>
@@ -3687,10 +3701,10 @@
         <f>E61+A61</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="48"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
@@ -3699,14 +3713,14 @@
       <c r="B62" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="63"/>
-      <c r="E62" s="62" t="s">
+      <c r="D62" s="56"/>
+      <c r="E62" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="32" t="e">
         <f>C62-A62*2</f>
         <v>#VALUE!</v>
@@ -3715,10 +3729,10 @@
         <f>E62+A62*2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="48"/>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" spans="1:15" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
@@ -3727,14 +3741,14 @@
       <c r="B63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="62" t="s">
+      <c r="D63" s="56"/>
+      <c r="E63" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -3743,10 +3757,10 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="48"/>
+      <c r="J63" s="57"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
@@ -3757,14 +3771,14 @@
       <c r="B64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="62" t="s">
+      <c r="D64" s="56"/>
+      <c r="E64" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="32" t="e">
         <f>C64-A64*4</f>
         <v>#VALUE!</v>
@@ -3773,10 +3787,10 @@
         <f>E64+A64*4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="48"/>
+      <c r="J64" s="57"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
@@ -3808,71 +3822,71 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45" t="s">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="65" t="s">
+      <c r="E67" s="64"/>
+      <c r="F67" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="H67" s="65" t="s">
+      <c r="H67" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="65" t="s">
+      <c r="I67" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="65" t="s">
+      <c r="J67" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="68"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="81"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="49">
         <v>2</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="53" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="37" t="s">
         <v>186</v>
       </c>
@@ -3895,14 +3909,14 @@
       <c r="A71" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="49">
         <v>5</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="53" t="s">
+      <c r="C71" s="50"/>
+      <c r="D71" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="54"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="37" t="s">
         <v>188</v>
       </c>
@@ -3925,14 +3939,14 @@
       <c r="A72" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="53">
+      <c r="B72" s="49">
         <v>10</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="53" t="s">
+      <c r="C72" s="50"/>
+      <c r="D72" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="54"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="37" t="s">
         <v>190</v>
       </c>
@@ -3955,14 +3969,14 @@
       <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="49">
         <v>200</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="53" t="s">
+      <c r="C73" s="50"/>
+      <c r="D73" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="54"/>
+      <c r="E73" s="50"/>
       <c r="F73" s="37" t="s">
         <v>192</v>
       </c>
@@ -3985,14 +3999,14 @@
       <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="49">
         <v>500</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="53" t="s">
+      <c r="C74" s="50"/>
+      <c r="D74" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="54"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="37" t="s">
         <v>194</v>
       </c>
@@ -4015,14 +4029,14 @@
       <c r="A75" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="53">
+      <c r="B75" s="49">
         <v>5000</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="53" t="s">
+      <c r="C75" s="50"/>
+      <c r="D75" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="54"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="37" t="s">
         <v>196</v>
       </c>
@@ -4043,32 +4057,32 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="53">
+      <c r="B77" s="49">
         <v>2</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="53" t="s">
+      <c r="C77" s="50"/>
+      <c r="D77" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="54"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="37" t="s">
         <v>198</v>
       </c>
@@ -4092,14 +4106,14 @@
       <c r="A78" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="49">
         <v>5</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="53" t="s">
+      <c r="C78" s="50"/>
+      <c r="D78" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="54"/>
+      <c r="E78" s="50"/>
       <c r="F78" s="37" t="s">
         <v>200</v>
       </c>
@@ -4123,14 +4137,14 @@
       <c r="A79" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="53">
+      <c r="B79" s="49">
         <v>10</v>
       </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="53" t="s">
+      <c r="C79" s="50"/>
+      <c r="D79" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="54"/>
+      <c r="E79" s="50"/>
       <c r="F79" s="37" t="s">
         <v>202</v>
       </c>
@@ -4154,14 +4168,14 @@
       <c r="A80" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="49">
         <v>200</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="53" t="s">
+      <c r="C80" s="50"/>
+      <c r="D80" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="54"/>
+      <c r="E80" s="50"/>
       <c r="F80" s="37" t="s">
         <v>204</v>
       </c>
@@ -4185,14 +4199,14 @@
       <c r="A81" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="53">
+      <c r="B81" s="49">
         <v>500</v>
       </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="53" t="s">
+      <c r="C81" s="50"/>
+      <c r="D81" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="54"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="37" t="s">
         <v>206</v>
       </c>
@@ -4216,14 +4230,14 @@
       <c r="A82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B82" s="49">
         <v>5000</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="53" t="s">
+      <c r="C82" s="50"/>
+      <c r="D82" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="54"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="37" t="s">
         <v>208</v>
       </c>
@@ -4288,21 +4302,21 @@
       <c r="A86" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45" t="s">
+      <c r="C86" s="64"/>
+      <c r="D86" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="45"/>
+      <c r="E86" s="64"/>
       <c r="F86" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="45" t="s">
+      <c r="G86" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="64"/>
       <c r="I86" s="15" t="s">
         <v>52</v>
       </c>
@@ -4312,311 +4326,311 @@
       <c r="K86" s="13"/>
     </row>
     <row r="87" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="13"/>
     </row>
     <row r="88" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="49">
+      <c r="A88" s="82">
         <v>6</v>
       </c>
-      <c r="B88" s="48">
+      <c r="B88" s="57">
         <v>200</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48">
+      <c r="C88" s="57"/>
+      <c r="D88" s="57">
         <v>500</v>
       </c>
-      <c r="E88" s="48"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="11">
         <v>1</v>
       </c>
-      <c r="G88" s="47" t="s">
+      <c r="G88" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="H88" s="47"/>
+      <c r="H88" s="90"/>
       <c r="I88" s="36" t="e">
         <f t="shared" ref="I88:I93" si="4">G88-$A$88</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J88" s="48">
+      <c r="J88" s="57">
         <v>3</v>
       </c>
       <c r="K88" s="13"/>
     </row>
     <row r="89" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48">
+      <c r="A89" s="83"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57">
         <v>50</v>
       </c>
-      <c r="E89" s="48"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="11">
         <v>10</v>
       </c>
-      <c r="G89" s="47" t="s">
+      <c r="G89" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="H89" s="47"/>
+      <c r="H89" s="90"/>
       <c r="I89" s="36" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J89" s="48"/>
+      <c r="J89" s="57"/>
       <c r="K89" s="13"/>
     </row>
     <row r="90" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48">
+      <c r="A90" s="83"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57">
         <v>20</v>
       </c>
-      <c r="E90" s="48"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="11">
         <v>30</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="H90" s="47"/>
+      <c r="H90" s="90"/>
       <c r="I90" s="36" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J90" s="48"/>
+      <c r="J90" s="57"/>
       <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48">
+      <c r="A91" s="83"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57">
         <v>20</v>
       </c>
-      <c r="E91" s="48"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="11">
         <v>50</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="H91" s="47"/>
+      <c r="H91" s="90"/>
       <c r="I91" s="36" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J91" s="48"/>
+      <c r="J91" s="57"/>
       <c r="K91" s="13"/>
       <c r="M91" s="35"/>
       <c r="N91" s="35"/>
     </row>
     <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48">
+      <c r="A92" s="83"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57">
         <v>10</v>
       </c>
-      <c r="E92" s="48"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="11">
         <v>80</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="H92" s="47"/>
+      <c r="H92" s="90"/>
       <c r="I92" s="36" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J92" s="48"/>
+      <c r="J92" s="57"/>
       <c r="K92" s="13"/>
     </row>
     <row r="93" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48">
+      <c r="A93" s="84"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57">
         <v>5</v>
       </c>
-      <c r="E93" s="48"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="11">
         <v>100</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="G93" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="H93" s="47"/>
+      <c r="H93" s="90"/>
       <c r="I93" s="36" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J93" s="48"/>
+      <c r="J93" s="57"/>
       <c r="K93" s="33"/>
     </row>
     <row r="94" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="91"/>
       <c r="K94" s="33"/>
     </row>
     <row r="95" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="49">
+      <c r="A95" s="82">
         <v>6</v>
       </c>
-      <c r="B95" s="41">
+      <c r="B95" s="86">
         <v>200</v>
       </c>
-      <c r="C95" s="42"/>
-      <c r="D95" s="48">
+      <c r="C95" s="87"/>
+      <c r="D95" s="57">
         <v>500</v>
       </c>
-      <c r="E95" s="48"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="H95" s="47"/>
+      <c r="H95" s="90"/>
       <c r="I95" s="36" t="e">
         <f t="shared" ref="I95:I100" si="5">G95-$A$88</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J95" s="59">
+      <c r="J95" s="45">
         <v>3</v>
       </c>
       <c r="K95" s="6"/>
     </row>
     <row r="96" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="48">
+      <c r="A96" s="83"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="57">
         <v>50</v>
       </c>
-      <c r="E96" s="48"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="11">
         <v>10</v>
       </c>
-      <c r="G96" s="47" t="s">
+      <c r="G96" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="H96" s="47"/>
+      <c r="H96" s="90"/>
       <c r="I96" s="36" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J96" s="60"/>
+      <c r="J96" s="94"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="48">
+      <c r="A97" s="83"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="57">
         <v>20</v>
       </c>
-      <c r="E97" s="48"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="11">
         <v>30</v>
       </c>
-      <c r="G97" s="47" t="s">
+      <c r="G97" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="H97" s="47"/>
+      <c r="H97" s="90"/>
       <c r="I97" s="36" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J97" s="60"/>
+      <c r="J97" s="94"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="48">
+      <c r="A98" s="83"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="57">
         <v>20</v>
       </c>
-      <c r="E98" s="48"/>
+      <c r="E98" s="57"/>
       <c r="F98" s="11">
         <v>50</v>
       </c>
-      <c r="G98" s="47" t="s">
+      <c r="G98" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="H98" s="47"/>
+      <c r="H98" s="90"/>
       <c r="I98" s="36" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J98" s="60"/>
+      <c r="J98" s="94"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="48">
+      <c r="A99" s="83"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="57">
         <v>10</v>
       </c>
-      <c r="E99" s="48"/>
+      <c r="E99" s="57"/>
       <c r="F99" s="11">
         <v>80</v>
       </c>
-      <c r="G99" s="47" t="s">
+      <c r="G99" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="H99" s="47"/>
+      <c r="H99" s="90"/>
       <c r="I99" s="36" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J99" s="60"/>
+      <c r="J99" s="94"/>
       <c r="K99" s="34"/>
     </row>
     <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="48">
+      <c r="A100" s="84"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="57">
         <v>5</v>
       </c>
-      <c r="E100" s="48"/>
+      <c r="E100" s="57"/>
       <c r="F100" s="11">
         <v>100</v>
       </c>
-      <c r="G100" s="47" t="s">
+      <c r="G100" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="H100" s="47"/>
+      <c r="H100" s="90"/>
       <c r="I100" s="36" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J100" s="61"/>
+      <c r="J100" s="46"/>
       <c r="K100" s="34"/>
     </row>
     <row r="101" spans="1:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4694,18 +4708,18 @@
       <c r="A106" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="45"/>
-      <c r="D106" s="46" t="s">
+      <c r="C106" s="64"/>
+      <c r="D106" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46" t="s">
+      <c r="E106" s="96"/>
+      <c r="F106" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="46"/>
+      <c r="G106" s="96"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -4714,18 +4728,18 @@
       <c r="A107" s="11">
         <v>1</v>
       </c>
-      <c r="B107" s="41">
+      <c r="B107" s="86">
         <v>50</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="52" t="s">
+      <c r="C107" s="87"/>
+      <c r="D107" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="E107" s="52"/>
-      <c r="F107" s="41">
+      <c r="E107" s="85"/>
+      <c r="F107" s="86">
         <v>3.5</v>
       </c>
-      <c r="G107" s="42"/>
+      <c r="G107" s="87"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -4734,14 +4748,14 @@
       <c r="A108" s="11">
         <v>2</v>
       </c>
-      <c r="B108" s="43"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="52" t="s">
+      <c r="B108" s="88"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="52"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="44"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="89"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -4771,41 +4785,41 @@
       <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="91" t="s">
+      <c r="A112" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="91" t="s">
+      <c r="B112" s="48"/>
+      <c r="C112" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="92"/>
-      <c r="E112" s="91" t="s">
+      <c r="D112" s="48"/>
+      <c r="E112" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="92"/>
-      <c r="G112" s="87" t="s">
+      <c r="F112" s="48"/>
+      <c r="G112" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="88"/>
+      <c r="H112" s="98"/>
       <c r="I112" s="8"/>
       <c r="J112" s="6"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53">
+      <c r="A113" s="49">
         <v>10</v>
       </c>
-      <c r="B113" s="54"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="96"/>
-      <c r="E113" s="95">
+      <c r="B113" s="50"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="53">
         <f>(C113-A113)*1000000</f>
         <v>-10000000</v>
       </c>
-      <c r="F113" s="96"/>
-      <c r="G113" s="53" t="s">
+      <c r="F113" s="54"/>
+      <c r="G113" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H113" s="54"/>
+      <c r="H113" s="50"/>
       <c r="I113" s="8"/>
       <c r="J113" s="6"/>
     </row>
@@ -4883,7 +4897,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="93">
+      <c r="A121" s="51">
         <v>8</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -4910,12 +4924,12 @@
       <c r="I121" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J121" s="59" t="s">
+      <c r="J121" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="94"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="10" t="s">
         <v>113</v>
       </c>
@@ -4940,10 +4954,10 @@
       <c r="I122" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J122" s="61"/>
+      <c r="J122" s="46"/>
     </row>
     <row r="123" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="93">
+      <c r="A123" s="51">
         <v>0</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -4970,12 +4984,12 @@
       <c r="I123" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J123" s="59" t="s">
+      <c r="J123" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="94"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="10" t="s">
         <v>115</v>
       </c>
@@ -5000,10 +5014,10 @@
       <c r="I124" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J124" s="61"/>
+      <c r="J124" s="46"/>
     </row>
     <row r="125" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="93">
+      <c r="A125" s="51">
         <v>-8</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -5030,12 +5044,12 @@
       <c r="I125" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J125" s="89" t="s">
+      <c r="J125" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="94"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="10" t="s">
         <v>117</v>
       </c>
@@ -5060,7 +5074,7 @@
       <c r="I126" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J126" s="90"/>
+      <c r="J126" s="44"/>
     </row>
     <row r="127" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="28"/>
@@ -5091,7 +5105,7 @@
       <c r="J127" s="15"/>
     </row>
     <row r="128" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="93">
+      <c r="A128" s="51">
         <v>8</v>
       </c>
       <c r="B128" s="10" t="s">
@@ -5118,12 +5132,12 @@
       <c r="I128" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J128" s="59" t="s">
+      <c r="J128" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="94"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="10" t="s">
         <v>113</v>
       </c>
@@ -5148,10 +5162,10 @@
       <c r="I129" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J129" s="61"/>
+      <c r="J129" s="46"/>
     </row>
     <row r="130" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="93">
+      <c r="A130" s="51">
         <v>0</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -5178,12 +5192,12 @@
       <c r="I130" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J130" s="59" t="s">
+      <c r="J130" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="94"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="10" t="s">
         <v>120</v>
       </c>
@@ -5208,10 +5222,10 @@
       <c r="I131" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J131" s="61"/>
+      <c r="J131" s="46"/>
     </row>
     <row r="132" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="93">
+      <c r="A132" s="51">
         <v>-8</v>
       </c>
       <c r="B132" s="10" t="s">
@@ -5238,12 +5252,12 @@
       <c r="I132" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J132" s="89" t="s">
+      <c r="J132" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="94"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="10" t="s">
         <v>122</v>
       </c>
@@ -5268,7 +5282,7 @@
       <c r="I133" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J133" s="90"/>
+      <c r="J133" s="44"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
@@ -5321,28 +5335,28 @@
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="97" t="s">
+      <c r="A138" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="97"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="99" t="s">
+      <c r="B138" s="99"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="41" t="s">
         <v>227</v>
       </c>
       <c r="E138" s="100" t="s">
         <v>228</v>
       </c>
       <c r="F138" s="101"/>
-      <c r="G138" s="102" t="s">
+      <c r="G138" s="42" t="s">
         <v>229</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="I138" s="40" t="s">
+      <c r="I138" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="J138" s="40"/>
+      <c r="J138" s="95"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
@@ -6211,131 +6225,70 @@
     <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A16:J17"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="I28:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A6:J8"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="E28:F32"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="B107:C108"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:C100"/>
+    <mergeCell ref="B88:C93"/>
+    <mergeCell ref="J95:J100"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G67:G68"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A11:D11"/>
@@ -6360,74 +6313,135 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B70:C70"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A94:J94"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:C100"/>
-    <mergeCell ref="B88:C93"/>
-    <mergeCell ref="J95:J100"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="B107:C108"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A16:J17"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="I28:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A6:J8"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="E28:F32"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.51181102362204722"/>
